--- a/src/main/resources/template/template.xlsx
+++ b/src/main/resources/template/template.xlsx
@@ -4,16 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="21240" windowHeight="11805" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="修订记录" sheetId="1" r:id="rId1"/>
     <sheet name="功能模块记录" sheetId="44" r:id="rId2"/>
     <sheet name="注意事项" sheetId="45" r:id="rId3"/>
     <sheet name="用户" sheetId="40" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="46" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="47" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="48" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A13:J36"/>
+  <oleSize ref="A1:J24"/>
 </workbook>
 </file>
 
@@ -549,10 +552,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -611,6 +614,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -622,9 +646,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,60 +668,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,30 +681,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -753,9 +701,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -792,7 +795,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,19 +831,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,67 +873,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,37 +891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,13 +909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,13 +921,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,6 +1177,65 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,22 +1259,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1231,197 +1278,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3137,8 +3140,8 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3710,4 +3713,52 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/template/template.xlsx
+++ b/src/main/resources/template/template.xlsx
@@ -4,19 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="11805" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="修订记录" sheetId="1" r:id="rId1"/>
     <sheet name="功能模块记录" sheetId="44" r:id="rId2"/>
     <sheet name="注意事项" sheetId="45" r:id="rId3"/>
     <sheet name="用户" sheetId="40" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="46" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="47" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="48" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:J24"/>
+  <oleSize ref="A13:J36"/>
 </workbook>
 </file>
 
@@ -552,10 +549,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -614,27 +611,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -646,8 +622,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,9 +645,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,6 +709,30 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -701,64 +753,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -795,7 +792,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,73 +894,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,13 +924,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +948,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,61 +966,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,65 +1174,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1259,7 +1197,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1278,153 +1231,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3140,8 +3137,8 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3713,52 +3710,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>